--- a/Assets/Resources/Excel/EndData.xlsx
+++ b/Assets/Resources/Excel/EndData.xlsx
@@ -40,13 +40,13 @@
     <t>Content</t>
   </si>
   <si>
-    <t>“我的天啊，那是什么东西？”\n我在干什么？\n“不……不要杀我！”\n嗯……想不清楚。但是，我好像从没体验过这种快感……\n“快逃……快逃啊！”</t>
+    <t>“我的天啊，那是什么东西？”\n我在干什么？\n“不……不要杀我！快逃啊”\n嗯……想不清楚。但是，我好像从没体验过这种快感……我在高兴吗？\n“别拦着我，滚开！……对，对不起，我也只是想活下去”\n……\n啊啊……\n原来，所有人都一样啊。\n都带着名为“人性”的面具。</t>
   </si>
   <si>
     <t>“主教大人，计划是不是失败了？您为什么要故意放走最后那个女的？献祭仪式还没有开始……”\n“呵呵，不用惊慌，神的忠诚侍者……”\n“计划进行得很成功。”\n“神……已经降临了。”</t>
   </si>
   <si>
-    <t>对不起......大家。骗了你们，我真的好痛苦。但是，神是一定要降临的......只有神能够将我们拯救......\n......这里是真理报记者威尔，关于圣威斯特天主公学纵火事件，继续为您报道......没错，这并非意外，而是一起蓄意的恐怖袭击。今日，在离市中心30公里外的一条荒路上发现了失踪的一名少女的尸体，死因是颈动脉创口导致的失血过多。剩余三人仍下落不明......虽然凶手仍逍遥法外，但这样泯灭人性行为，一定会受到上天的惩罚！让我们为死者默哀.....</t>
+    <t>对不起......大家。骗了你们，我的心里一定......是很痛苦的吧。但是，神是一定要降临的......只有神能够将我们拯救......\n......这里是真理报记者威尔，关于圣威斯特天主公学纵火事件，继续为您报道......没错，这并非意外，而是一起蓄意的恐怖袭击。今日，在离市中心30公里外的一条荒路上发现了失踪的一名少女的尸体，死因是颈动脉创口导致的失血过多。剩余三人仍下落不明......虽然凶手仍逍遥法外，但这样泯灭人性行为，一定会受到上天的惩罚！让我们为死者默哀.....</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,154 +524,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -982,8 +992,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1002,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="273.6" spans="1:3">
+    <row r="2" ht="43.2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1013,14 +1023,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="331.2" spans="1:3">
+    <row r="3" ht="28.8" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
